--- a/Level-2/JS-Frameworks-with-AngularJS/Social-Network-Project/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/Level-2/JS-Frameworks-with-AngularJS/Social-Network-Project/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>18</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C44" s="11">
         <f>SUM(C6:C43)</f>
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D44" s="11">
         <v>370</v>

--- a/Level-2/JS-Frameworks-with-AngularJS/Social-Network-Project/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/Level-2/JS-Frameworks-with-AngularJS/Social-Network-Project/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -642,7 +642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,7 +653,7 @@
   <dimension ref="B2:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>18</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C44" s="11">
         <f>SUM(C6:C43)</f>
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D44" s="11">
         <v>370</v>

--- a/Level-2/JS-Frameworks-with-AngularJS/Social-Network-Project/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/Level-2/JS-Frameworks-with-AngularJS/Social-Network-Project/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -642,7 +642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,7 +653,7 @@
   <dimension ref="B2:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>18</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C44" s="11">
         <f>SUM(C6:C43)</f>
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D44" s="11">
         <v>370</v>
